--- a/日经词汇.xlsx
+++ b/日经词汇.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19425" windowHeight="5610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
   <si>
     <t>嫁姑（よめしゅうと）</t>
   </si>
@@ -278,6 +278,483 @@
   </si>
   <si>
     <t>作りの華奢なこと。普通より細く作ってあること。また、そのもの。「細身のスラックス」「細身の女性」。</t>
+  </si>
+  <si>
+    <t>中間選挙（ちゅうかんせんきょ）</t>
+  </si>
+  <si>
+    <t>米国の大統領選挙の中間期に行われる四年ごとの議員選挙。下院議員の全員と上院議員の三分の一が改選される。</t>
+  </si>
+  <si>
+    <t>上下両院（じょうかりょういん）</t>
+  </si>
+  <si>
+    <t>飛び火（とびひ）</t>
+  </si>
+  <si>
+    <t>事件の影響などが、無関係と思われるようなところにまで広がること。</t>
+  </si>
+  <si>
+    <t>お灸を据えられる</t>
+  </si>
+  <si>
+    <t>名誉教授（めいよきょうじゅ）</t>
+  </si>
+  <si>
+    <t>大学に教授その他として一定の年限を勤めた者で、教育または学術上著しい功績があった者に対し、退職後大学から与えられる称号。</t>
+  </si>
+  <si>
+    <t>引き付ける（ひきつける）</t>
+  </si>
+  <si>
+    <t>近くに引き寄せる。手元に近づかせる。</t>
+  </si>
+  <si>
+    <t>素地（きじ）</t>
+  </si>
+  <si>
+    <t>手を加えていない。もともとの性質。</t>
+  </si>
+  <si>
+    <t>著名（ちょめい）</t>
+  </si>
+  <si>
+    <t>世間に名が知られていること。そのさま。有名。</t>
+  </si>
+  <si>
+    <t>昨期（さくき）</t>
+  </si>
+  <si>
+    <t>この前の期間。</t>
+  </si>
+  <si>
+    <t>厘（りん）</t>
+  </si>
+  <si>
+    <t>数の単位。</t>
+  </si>
+  <si>
+    <t>尺貫法（しゃっかんほう）</t>
+  </si>
+  <si>
+    <t>日本古来の度量衡法。長さの単位を尺、容積の単位を升、質量の単位を貫とする。明治以降メートル法と併用されてきたが、昭和３４年（１９５９）原則として廃止され、昭和４１年（１９６６）以後メートル法に統一された。</t>
+  </si>
+  <si>
+    <t>快挙（かいきょ）</t>
+  </si>
+  <si>
+    <t>胸のすくような、素晴らしい行為。痛快な行動。</t>
+  </si>
+  <si>
+    <t>塗り替える（ぬりかえる）</t>
+  </si>
+  <si>
+    <t>前とはすっかり違ったものにする。一新する。また、記録を更新する。</t>
+  </si>
+  <si>
+    <t>奪取（だっしゅ）</t>
+  </si>
+  <si>
+    <t>奪い取ること。力ずくでとること。</t>
+  </si>
+  <si>
+    <t>昇段（しょうだん）</t>
+  </si>
+  <si>
+    <t>武道や囲碁・将棋などで、段位が上がること。</t>
+  </si>
+  <si>
+    <t>出場（しゅつじょう）</t>
+  </si>
+  <si>
+    <t>競技会などに参加すること。</t>
+  </si>
+  <si>
+    <t>ズレ</t>
+  </si>
+  <si>
+    <t>ずれた部分のこと。違っている部分のこと。小さな差や違いなどを幅広く指す。ずれる。</t>
+  </si>
+  <si>
+    <t>火種（ひだね）</t>
+  </si>
+  <si>
+    <t>火を起こすもとになる火。争い・騒ぎの原因。</t>
+  </si>
+  <si>
+    <t>答弁（とうべん）</t>
+  </si>
+  <si>
+    <t>質問に対して答えること。また、その答え。</t>
+  </si>
+  <si>
+    <t>整合性（せいごうせい）</t>
+  </si>
+  <si>
+    <t>無矛盾性に同じ。</t>
+  </si>
+  <si>
+    <t>愛媛（えひめ）</t>
+  </si>
+  <si>
+    <t>上弦（じょうげん）</t>
+  </si>
+  <si>
+    <t>新月から満月に至る空間頃の月。陰暦の上旬７日、８日頃、太陽との黄経差が９０度になる時の月。日本では月の右半分が膨らみ、入りの際半月の弦が上向きとなる。</t>
+  </si>
+  <si>
+    <t>下弦（かげん）</t>
+  </si>
+  <si>
+    <t>満月から新月に至る中間頃の月、陰暦２２、３日頃、太陽との黄経差が２７０度になるときの月。月の左側が膨らみ、入りの際半月の弦が下向きとなる。</t>
+  </si>
+  <si>
+    <t>黄経（こうけい・おうけい）</t>
+  </si>
+  <si>
+    <t>黄道座標の軽度。春分点を零度として東回りに３６０度まで測る。</t>
+  </si>
+  <si>
+    <t>裏返し（うらがえし）</t>
+  </si>
+  <si>
+    <t>物の裏を返して表にすること。また、その状態。</t>
+  </si>
+  <si>
+    <t>クレーター</t>
+  </si>
+  <si>
+    <t>火山の噴火口。</t>
+  </si>
+  <si>
+    <t>弛緩（しかん）</t>
+  </si>
+  <si>
+    <t>緩むこと。弛むこと。</t>
+  </si>
+  <si>
+    <t>数例（すうれい）</t>
+  </si>
+  <si>
+    <t>手足口病（たしくちびょう）</t>
+  </si>
+  <si>
+    <t>コクサッキーウイルスなどの感染により、手・足や口の中に小さな水泡性の発疹ができる病気、数週間で治る。幼児に多い。</t>
+  </si>
+  <si>
+    <t>発疹（ほっしん）</t>
+  </si>
+  <si>
+    <t>皮膚や粘膜に現れる色や形の病的変化。</t>
+  </si>
+  <si>
+    <t>麻疹（はしか）</t>
+  </si>
+  <si>
+    <t>飛沫（しぶき）</t>
+  </si>
+  <si>
+    <t>雨風が吹き付けること。また、その雨。あるいは、水などが細かく飛び散ること。また、その水滴。飛沫。</t>
+  </si>
+  <si>
+    <t>ワクチン</t>
+  </si>
+  <si>
+    <t>生体に免疫を作らせて感染症を予防するために用いられる抗原。</t>
+  </si>
+  <si>
+    <t>脊髄（せきずい）</t>
+  </si>
+  <si>
+    <t>脊髄動物の中枢神経系の一。延髄に続き、脊柱管内を縦走する。</t>
+  </si>
+  <si>
+    <t>病変（びょうへん）</t>
+  </si>
+  <si>
+    <t>病気による生体の変化。</t>
+  </si>
+  <si>
+    <t>嗽（うがい）</t>
+  </si>
+  <si>
+    <t>水や薬液などを口に含んで、口やのどをすすぐこと。含嗽（がんそう）。</t>
+  </si>
+  <si>
+    <t>佐賀（さが）</t>
+  </si>
+  <si>
+    <t>九州地方北西部の県。肥前の東半部にあたる。</t>
+  </si>
+  <si>
+    <t>日付（ひづけ）</t>
+  </si>
+  <si>
+    <t>文書などに、その作成・提出などの年月日を記すこと。また、その年月日。</t>
+  </si>
+  <si>
+    <t>年月日（ねんがっぴ）</t>
+  </si>
+  <si>
+    <t>ある事が行われる年と月と日。</t>
+  </si>
+  <si>
+    <t>懲戒（ちょうかい）</t>
+  </si>
+  <si>
+    <t>不正または不当な行為に対して制裁を加えるなどして、懲らしめること。</t>
+  </si>
+  <si>
+    <t>懲らしめる（こらしめる）</t>
+  </si>
+  <si>
+    <t>制裁を加えたりして二度としないようにさせる。懲らす。</t>
+  </si>
+  <si>
+    <t>秘書（ひしょ）</t>
+  </si>
+  <si>
+    <t>要職の人に直属して、機密の文書・事務などを取り扱う職。また、その人。</t>
+  </si>
+  <si>
+    <t>広報（こうほう）</t>
+  </si>
+  <si>
+    <t>官公庁・企業・各種団体などが、施策や業務内容などを広く一般の人に知らせること。また、その知らせ。</t>
+  </si>
+  <si>
+    <t>遺憾（いかん）</t>
+  </si>
+  <si>
+    <t>期待したようにならず、心残りであること。残念に思うこと。また、そのさま。</t>
+  </si>
+  <si>
+    <t>プライバシー</t>
+  </si>
+  <si>
+    <t>個人や家庭内の私事・私生活。個人の秘密。また、それが他人から干渉・侵害を受けない権利。</t>
+  </si>
+  <si>
+    <t>溺れる（おぼれる）</t>
+  </si>
+  <si>
+    <t>泳げないで死にそうになる。また、水中に落ちて死ぬ。</t>
+  </si>
+  <si>
+    <t>直結（ちょっけつ）</t>
+  </si>
+  <si>
+    <t>間に他のものをおかず、直接に結びつけること。また、直結関係があること。</t>
+  </si>
+  <si>
+    <t>後手に回る（ごてにまわる）</t>
+  </si>
+  <si>
+    <t>他に先を越されたり先に攻められたりして、受身の立場になる。</t>
+  </si>
+  <si>
+    <t>抱き寄せる（だきよせる）</t>
+  </si>
+  <si>
+    <t>抱きよす。抱いて引き寄せる。</t>
+  </si>
+  <si>
+    <t>溺死（できし）</t>
+  </si>
+  <si>
+    <t>水に溺れて死ぬこと。溺れしに。水死。</t>
+  </si>
+  <si>
+    <t>柵（さく）</t>
+  </si>
+  <si>
+    <t>木を立て並べて作った小規模の防壁。砦。</t>
+  </si>
+  <si>
+    <t>砦（とりで）</t>
+  </si>
+  <si>
+    <t>本城の外の要所に築く小規模な城。出城（でじろ）。</t>
+  </si>
+  <si>
+    <t>結成（けっせい）</t>
+  </si>
+  <si>
+    <t>会や団体などの組織を作ること。</t>
+  </si>
+  <si>
+    <t>ドラフト</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>内野手（ないやしゅ）</t>
+  </si>
+  <si>
+    <t>野球で、内野の守備をする選手。一塁手・二塁手・三塁手・遊撃手の四人。インフィールだー。</t>
+  </si>
+  <si>
+    <t>学才（がくさい）</t>
+  </si>
+  <si>
+    <t>学問の才能。</t>
+  </si>
+  <si>
+    <t>版元（はんもと）</t>
+  </si>
+  <si>
+    <t>図書などを出版する所。出版元。発行所。</t>
+  </si>
+  <si>
+    <t>重刷（じゅうさつ）</t>
+  </si>
+  <si>
+    <t>出版物を増し刷りすること。また、その印刷物。増刷。</t>
+  </si>
+  <si>
+    <t>目を引く</t>
+  </si>
+  <si>
+    <t>読み漁る（よみあさる）</t>
+  </si>
+  <si>
+    <t>探し求めて、いろいろ読む。手当たり次第に読む。</t>
+  </si>
+  <si>
+    <t>手当たり次第（てあたりしだい）</t>
+  </si>
+  <si>
+    <t>手に触れるもの、行き当たるもの全て。片っ端から。</t>
+  </si>
+  <si>
+    <t>平積み（ひらづみ）</t>
+  </si>
+  <si>
+    <t>書店で、本や雑誌の表紙を上にして、台に積み上げて陳列する売り方。</t>
+  </si>
+  <si>
+    <t>フィーバー</t>
+  </si>
+  <si>
+    <t>発熱。熱病。あるいは、極度に興奮すること。熱狂すること。</t>
+  </si>
+  <si>
+    <t>入荷（にゅうか）</t>
+  </si>
+  <si>
+    <t>商店や市場に品物が入ること。</t>
+  </si>
+  <si>
+    <t>取捨選択（しゅしゃせんたく）</t>
+  </si>
+  <si>
+    <t>必要なものを選び取り、不要なものを捨てること。</t>
+  </si>
+  <si>
+    <t>幕末（ばくまつ）</t>
+  </si>
+  <si>
+    <t>江戸幕府の末期、安政元年の日米和親条約締結による開国から、慶応３年の大政奉還による政権移譲まで、またはそれに至る３０～４０年間を言う。</t>
+  </si>
+  <si>
+    <t>文庫版（ぶんこばん）</t>
+  </si>
+  <si>
+    <t>発注（はっちゅう）</t>
+  </si>
+  <si>
+    <t>注文を出すこと。</t>
+  </si>
+  <si>
+    <t>山頂（さんちょう）</t>
+  </si>
+  <si>
+    <t>山の頂上。</t>
+  </si>
+  <si>
+    <t>里山（さとやま）</t>
+  </si>
+  <si>
+    <t>人里近くにある、生活に結びついた山や森林。薪（たきぎ）や山菜の採取などに利用される。適度に人の手が入ることで生態系の釣り合いが取れている地域を指し、山林に隣接する農地と集落を含めていうこともある。</t>
+  </si>
+  <si>
+    <t>背もたれ（せもたれ）</t>
+  </si>
+  <si>
+    <t>椅子の後部にあって、背中を凭せ掛けるもの。</t>
+  </si>
+  <si>
+    <t>座板（ざいた）</t>
+  </si>
+  <si>
+    <t>椅子の、腰を下ろす部分の板。</t>
+  </si>
+  <si>
+    <t>水田（すいでん）</t>
+  </si>
+  <si>
+    <t>水をいれ、水稲・レンコンなどを作る田。みずた。たんぼ。</t>
+  </si>
+  <si>
+    <t>物見櫓（ものみやぐら）</t>
+  </si>
+  <si>
+    <t>遠くを見渡すために設けた櫓。</t>
+  </si>
+  <si>
+    <t>竹やぶ（たけやぶ）</t>
+  </si>
+  <si>
+    <t>たくさんの竹が生えいている所。たけばやし。たかむら。たかやぶ。</t>
+  </si>
+  <si>
+    <t>有志（ゆうし）</t>
+  </si>
+  <si>
+    <t>ある物事に関心を落ち、関わろうとする意志のあること。また、その人。</t>
+  </si>
+  <si>
+    <t>発足（ほっそく）</t>
+  </si>
+  <si>
+    <t>組織や機構などが設けら、活動を始めること。はっそく。</t>
+  </si>
+  <si>
+    <t>檜（ひのき）</t>
+  </si>
+  <si>
+    <t>檜科の常緑高木。産地に自生するが、多くは植林。高さ３０～４０メートル。</t>
+  </si>
+  <si>
+    <t>赤褐色（せっかっしょく）</t>
+  </si>
+  <si>
+    <t>赤みを帯びた褐色。</t>
+  </si>
+  <si>
+    <t>野外（やがい）</t>
+  </si>
+  <si>
+    <t>強風（きょうふう）</t>
+  </si>
+  <si>
+    <t>毛布（けぬの）</t>
+  </si>
+  <si>
+    <t>切妻造（きりづまづくり）</t>
+  </si>
+  <si>
+    <t>屋根形状の一つで屋根の最長部の棟から地上に向かって二つの傾斜面が本を伏せたような山形の形状をした屋根。</t>
+  </si>
+  <si>
+    <t>開閉式（かいへいしき）</t>
+  </si>
+  <si>
+    <t>備蓄（びちく）</t>
+  </si>
+  <si>
+    <t>身を寄せる（みをよせる）</t>
   </si>
 </sst>
 </file>
@@ -286,8 +763,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -305,41 +782,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,22 +797,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,22 +812,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,6 +862,20 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -428,22 +897,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,187 +935,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,17 +1129,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,6 +1158,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,15 +1218,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -757,10 +1234,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -769,16 +1246,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -787,127 +1264,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1228,10 +1708,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1241,367 +1721,1023 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="27" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="41" ht="27" spans="1:2">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="47" ht="27" spans="1:2">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="48" ht="27" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" ht="27" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" ht="40.5" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" ht="27" spans="1:2">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" ht="27" spans="1:2">
+      <c r="A70" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="1"/>
+    </row>
+    <row r="76" ht="27" spans="1:2">
+      <c r="A76" t="s">
+        <v>140</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>142</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" ht="27" spans="1:2">
+      <c r="A79" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>147</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>151</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>159</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>161</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>163</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" ht="27" spans="1:2">
+      <c r="A90" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>173</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>175</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>177</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>179</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>181</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>183</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>185</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>187</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>189</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>193</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>195</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>197</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>199</v>
+      </c>
+      <c r="B106" s="1"/>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>200</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>202</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>204</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>206</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>208</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>210</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="113" ht="27" spans="1:2">
+      <c r="A113" t="s">
+        <v>212</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>214</v>
+      </c>
+      <c r="B114" s="1"/>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>215</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>217</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="117" ht="40.5" spans="1:2">
+      <c r="A117" t="s">
+        <v>219</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>221</v>
+      </c>
+      <c r="B118" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>223</v>
+      </c>
+      <c r="B119" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>225</v>
+      </c>
+      <c r="B120" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>227</v>
+      </c>
+      <c r="B121" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>229</v>
+      </c>
+      <c r="B122" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>231</v>
+      </c>
+      <c r="B123" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>233</v>
+      </c>
+      <c r="B124" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>235</v>
+      </c>
+      <c r="B125" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>237</v>
+      </c>
+      <c r="B126" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="130" ht="27" spans="1:2">
+      <c r="A130" t="s">
+        <v>242</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/日经词汇.xlsx
+++ b/日经词汇.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19425" windowHeight="5610"/>
+    <workbookView windowWidth="19425" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430">
   <si>
     <t>嫁姑（よめしゅうと）</t>
   </si>
@@ -754,7 +754,558 @@
     <t>備蓄（びちく）</t>
   </si>
   <si>
+    <t>将来や万一の場合に備えて蓄えておくこと。また、その蓄え。</t>
+  </si>
+  <si>
     <t>身を寄せる（みをよせる）</t>
+  </si>
+  <si>
+    <t>文部科学省（もんぶかがくしょう）</t>
+  </si>
+  <si>
+    <t>国の行政機関の一つ。教育の振興、生涯学習の推進を中心とした創造的な人材育成、学術、スポーツ及び文化の振興、並びに科学技術の総合的な振興、宗教に関する行政事務を担当する。</t>
+  </si>
+  <si>
+    <t>出向</t>
+  </si>
+  <si>
+    <t>出向くこと。命令を受けて、籍を元のところに置いたまま、ほかの役所や会社などで勤務につくこと。</t>
+  </si>
+  <si>
+    <t>取りまとめる</t>
+  </si>
+  <si>
+    <t>多くのものを整理して一つにする。あるいは、物事を望ましい状態にして決まりをつける。</t>
+  </si>
+  <si>
+    <t>文書（ぶんしょ）</t>
+  </si>
+  <si>
+    <t>文字で書き記したものの総称。書籍・書類・書状・証文など。書物。ふいｍ。</t>
+  </si>
+  <si>
+    <t>交付金（こうふきん）</t>
+  </si>
+  <si>
+    <t>国や公共団体が、法令に基づき他の団体に交付する財政援助資金。</t>
+  </si>
+  <si>
+    <t>あってはならない</t>
+  </si>
+  <si>
+    <t>所管（しょかん）</t>
+  </si>
+  <si>
+    <t>ある範囲の事務をそこの責任・権限で管理すること。また、その範囲。</t>
+  </si>
+  <si>
+    <t>常磐（ときわ）</t>
+  </si>
+  <si>
+    <t>京都市右京区の南西、太秦（うずまさ）の北の地名。</t>
+  </si>
+  <si>
+    <t>山荘（さんそう）</t>
+  </si>
+  <si>
+    <t>山に構えた別荘。</t>
+  </si>
+  <si>
+    <t>法人（ほうじん）</t>
+  </si>
+  <si>
+    <t>自然人以外のもので、法律上の権利義務の主体とされるもの。一定の目的のために結合した人の集団や財産について権利能力（法人格）が認められる。公法人と死に私法人、社団法人と財団法人、営利法人と公益法人・中間法人・NPO法人などに分けられる。</t>
+  </si>
+  <si>
+    <t>口座（こうざ）</t>
+  </si>
+  <si>
+    <t>簿記（ぼき）の「勘定口座」の略。あるいは、金融機関で、加入者ごとに金銭の記録・計算を行う仕組み。</t>
+  </si>
+  <si>
+    <t>書留（かきとめ）</t>
+  </si>
+  <si>
+    <t>郵便物の特殊取り扱いの一つ。郵便局が引受から配達までを記録し、途中で亡失（ぼうしつ）や棄損があった場合は一定の範囲内で損害を賠償する。一般書留・現金書留・簡易書留の三種類がある。</t>
+  </si>
+  <si>
+    <t>口数（こうすう）</t>
+  </si>
+  <si>
+    <t>人口の数。人数。項目・品物・申し込みなどの数。</t>
+  </si>
+  <si>
+    <t>欄（らん）</t>
+  </si>
+  <si>
+    <t>印刷物の紙面上の、区切られた一定の部分。特に、罫（けい）で囲まれた部分。</t>
+  </si>
+  <si>
+    <t>遺児（いじ）</t>
+  </si>
+  <si>
+    <t>親と死に別れた子。遺子。</t>
+  </si>
+  <si>
+    <t>内輪（うちわ）</t>
+  </si>
+  <si>
+    <t>外部の者を交えないこと。うちうち。身内。</t>
+  </si>
+  <si>
+    <t>慣習（かんしゅう）</t>
+  </si>
+  <si>
+    <t>ある社会で副るから受け継がれてきている生活上の習わし。しきたり。</t>
+  </si>
+  <si>
+    <t>総長（そうちょう）</t>
+  </si>
+  <si>
+    <t>全体を統轄・管理する職。あるいは、総合大学の学長。</t>
+  </si>
+  <si>
+    <t>仕組み（しくみ）</t>
+  </si>
+  <si>
+    <t>物事の組立。構造。機構。</t>
+  </si>
+  <si>
+    <t>従事（じゅうじ）</t>
+  </si>
+  <si>
+    <t>もっぱらその仕事に携わること。</t>
+  </si>
+  <si>
+    <t>適法（てきほう）</t>
+  </si>
+  <si>
+    <t>法規や法律にかなっていること。法に反しないこと。</t>
+  </si>
+  <si>
+    <t>もっぱら</t>
+  </si>
+  <si>
+    <t>他は差し置いて、あるひとつのことに集中するさま。また、あるひとつの事を主とするさま。ひたすら。ただただ。</t>
+  </si>
+  <si>
+    <t>携わる（たずさわる）</t>
+  </si>
+  <si>
+    <t>ある物事に関係する。従事する。あるいは、手を取り合う。連れ立つ。</t>
+  </si>
+  <si>
+    <t>サウジアラビア</t>
+  </si>
+  <si>
+    <t>アラビア半島の大半を占める国。正称、サウジアラビア王国。首都リヤド。</t>
+  </si>
+  <si>
+    <t>影を落とす</t>
+  </si>
+  <si>
+    <t>光がさす。あるいは、影響を与える。</t>
+  </si>
+  <si>
+    <t>関与（かんよ）</t>
+  </si>
+  <si>
+    <t>ある物事に関係すること。</t>
+  </si>
+  <si>
+    <t>示唆（しさ）</t>
+  </si>
+  <si>
+    <t>それとなく知らせること。ほのめかすこと。</t>
+  </si>
+  <si>
+    <t>寄稿（きこう）</t>
+  </si>
+  <si>
+    <t>依頼されて、新聞や雑誌などに現行を書いて送ること。また、その原稿。</t>
+  </si>
+  <si>
+    <t>即位（そくい）</t>
+  </si>
+  <si>
+    <t>君主の位につくこと。</t>
+  </si>
+  <si>
+    <t>取り仕切る（とりしきる）</t>
+  </si>
+  <si>
+    <t>自分の身に引き受けて行う。一切を自分の責任で処理する。</t>
+  </si>
+  <si>
+    <t>一時（いちじ）</t>
+  </si>
+  <si>
+    <t>時刻の名。あるいは、短い時間。しばらくの間。</t>
+  </si>
+  <si>
+    <t>取り沙汰（とりざた）</t>
+  </si>
+  <si>
+    <t>あれこれと噂するこおと。また、その噂。あるいは、取り扱って処理すること。</t>
+  </si>
+  <si>
+    <t>重んじる（おもんじる）</t>
+  </si>
+  <si>
+    <t>価値のあるものとして重くみる。尊重する。</t>
+  </si>
+  <si>
+    <t>一貫（いっかん）</t>
+  </si>
+  <si>
+    <t>ひとつの方針・方法・態度で、始めから終わりまで貫き通すこと。</t>
+  </si>
+  <si>
+    <t>実弟（じってい）</t>
+  </si>
+  <si>
+    <t>同じ父母から生まれた弟。</t>
+  </si>
+  <si>
+    <t>抑制（よくせい）</t>
+  </si>
+  <si>
+    <t>抑え留めること。あるいは、意識的な努力によって衝動やそれに伴う感情・思考を押さえつけること。</t>
+  </si>
+  <si>
+    <t>大使（たいし）</t>
+  </si>
+  <si>
+    <t>外交使節の最上位のもの。臨時的な特派大使と常駐の特命全権大使とがあるが、普通には後者をさす。</t>
+  </si>
+  <si>
+    <t>臆測（おくそく）</t>
+  </si>
+  <si>
+    <t>自分で勝手に推測すること。当て推量。</t>
+  </si>
+  <si>
+    <t>還元（かんげん）</t>
+  </si>
+  <si>
+    <t>物事を元の形・性質・状態などに戻すこと。</t>
+  </si>
+  <si>
+    <t>難航（なんこう）</t>
+  </si>
+  <si>
+    <t>障害が多く、物事がはかどらないこと。</t>
+  </si>
+  <si>
+    <t>線引き（せんびき）</t>
+  </si>
+  <si>
+    <t>線を引くこと。あるいは、計画・予定あどを図面・グラフ上に線を引いて表すこと。あるいは、日限・数量などを区切ること。また、物事の境界を決めて分けること。</t>
+  </si>
+  <si>
+    <t>決済（けっさい）</t>
+  </si>
+  <si>
+    <t>代金や証券・商品、または売買差金の受け渡しによって、売買取引を終了すること。</t>
+  </si>
+  <si>
+    <t>改修（かいしゅう）</t>
+  </si>
+  <si>
+    <t>道路・建物などの悪い部分を直すこと。</t>
+  </si>
+  <si>
+    <t>キャッシュレス</t>
+  </si>
+  <si>
+    <t>現金ではなく、小切手・口座振替・クレジットカードなどを利用して支払いや受け取りを行うこと。</t>
+  </si>
+  <si>
+    <t>小売店（こうりてん）</t>
+  </si>
+  <si>
+    <t>小売りをする店。消費者に直接品物を売る店。</t>
+  </si>
+  <si>
+    <t>店舗（てんぽ）</t>
+  </si>
+  <si>
+    <t>商品を並べて売るための建物。みせ。</t>
+  </si>
+  <si>
+    <t>とりわけ</t>
+  </si>
+  <si>
+    <t>とくに</t>
+  </si>
+  <si>
+    <t>採り入れる（とりいれる）</t>
+  </si>
+  <si>
+    <t>外にあるものを取って中に入れる。取り込む。</t>
+  </si>
+  <si>
+    <t>捗る（はかどる）</t>
+  </si>
+  <si>
+    <t>仕事が順調にどんどん進む。はかがゆく。進捗（しんちょく）する。</t>
+  </si>
+  <si>
+    <t>請け負う（うけおう）</t>
+  </si>
+  <si>
+    <t>責任を持って引き受ける。</t>
+  </si>
+  <si>
+    <t>未明（みめい）</t>
+  </si>
+  <si>
+    <t>まだ夜が明け切らない時分。</t>
+  </si>
+  <si>
+    <t>すり抜け</t>
+  </si>
+  <si>
+    <t>擦りぬけること。引っかからずに通り抜けること。</t>
+  </si>
+  <si>
+    <t>ハッシュタグ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ツイッターなどのソーシャルメディアにおいて、特定のテーマについての投稿を検索して一覧表示するための機能。
+</t>
+  </si>
+  <si>
+    <t>千歳（ちとせ）</t>
+  </si>
+  <si>
+    <t>敏捷（びんしょう）</t>
+  </si>
+  <si>
+    <t>動作が素早いこと。また、そのさま。</t>
+  </si>
+  <si>
+    <t>網戸（あみど）</t>
+  </si>
+  <si>
+    <t>虫を侵入せずに涼を取るために窓や出入り口に取り付ける、網を張った戸。</t>
+  </si>
+  <si>
+    <t>突き破る（つきやぶる）</t>
+  </si>
+  <si>
+    <t>突いて破る。また、強い力で破る。こんな事態や障害を打開する。</t>
+  </si>
+  <si>
+    <t>打開（だかい）</t>
+  </si>
+  <si>
+    <t>困難な状態や行き詰った事情などを切り開いて、解決の糸口をつけること。</t>
+  </si>
+  <si>
+    <t>官製談合（かんせいだんごう）</t>
+  </si>
+  <si>
+    <t>入札談合。</t>
+  </si>
+  <si>
+    <t>収賄（しゅわい）</t>
+  </si>
+  <si>
+    <t>賄賂を受け取ること。</t>
+  </si>
+  <si>
+    <t>新風（しんぷう）</t>
+  </si>
+  <si>
+    <t>今までと違う新しいやり方や考え方。清新の気を感じさせる新しい傾向。</t>
+  </si>
+  <si>
+    <t>私物（しぶつ）</t>
+  </si>
+  <si>
+    <t>公のものでなく、個人の所有する物品・財貨。</t>
+  </si>
+  <si>
+    <t>漏洩（ろうえい）</t>
+  </si>
+  <si>
+    <t>水・光などが、漏れること。また、漏らすこと。あるいは、秘密などが、もれること。また、むらすこと。</t>
+  </si>
+  <si>
+    <t>入札（にゅうさつ）</t>
+  </si>
+  <si>
+    <t>物品の売買、工事の請負などに際して契約希望者が複数ある場合、金額などを文書で表示させ、その内容によって契約の相手を決めること。また、契約希望者が、その文書を提出すること。競争入札。いれふだ。</t>
+  </si>
+  <si>
+    <t>近接（きんせつ）</t>
+  </si>
+  <si>
+    <t>近づくこと。近寄ること。</t>
+  </si>
+  <si>
+    <t>予兆（よちょう）</t>
+  </si>
+  <si>
+    <t>前触れ。前兆。兆し。特に、未来の事象を示すものとしての、天体・天候・動物・植物などの自然現象に現れる変化。</t>
+  </si>
+  <si>
+    <t>全般</t>
+  </si>
+  <si>
+    <t>物事の全体。総体。</t>
+  </si>
+  <si>
+    <t>ひっくり返す</t>
+  </si>
+  <si>
+    <t>上下・表裏などを反対にする。逆さまにする。裏返す。</t>
+  </si>
+  <si>
+    <t>気まぐれ</t>
+  </si>
+  <si>
+    <t>気が変わりやすいこと。その時々の思いつきや気分で行動すること。また、そのさま。</t>
+  </si>
+  <si>
+    <t>入札談合（にゅうさつだんごう）</t>
+  </si>
+  <si>
+    <t>公共事業などの競争入札において、競争するはずの業者同士が、あらかじめ話し合って協定すること。</t>
+  </si>
+  <si>
+    <t>訓示（くんじ）</t>
+  </si>
+  <si>
+    <t>上位の者が下位の者に執務（しつむ）上の注意などを教え示すこと。また、その言葉。</t>
+  </si>
+  <si>
+    <t>脱却（だっきゃく）</t>
+  </si>
+  <si>
+    <t>古い考え方や欠点などを捨て去ること。また、よくない状態から抜け出すこと。</t>
+  </si>
+  <si>
+    <t>手引き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人の手を引いて、助けたりみ導いたりすること。あた、それをする人。あるいは、案内すること。また、それをする人。あるいは、情報を提供するなどして手助けすること。また、それをする人。あるいは、新たに始める人のために手解きをすること。また、そのための書物。あるいは、手で引くこと。手で引き出すこと。
+</t>
+  </si>
+  <si>
+    <t>スケジュール</t>
+  </si>
+  <si>
+    <t>予定。日程。また、予定表、日程表。</t>
+  </si>
+  <si>
+    <t>率先</t>
+  </si>
+  <si>
+    <t>人の先に立ってことを行うこと。進んでことをすること。</t>
+  </si>
+  <si>
+    <t>取り戻す</t>
+  </si>
+  <si>
+    <t>一度失ったものや与えたものを再び自分のものとする。取り返す。</t>
+  </si>
+  <si>
+    <t>発育発達（はついくはったつ）</t>
+  </si>
+  <si>
+    <t>商品などの質や形状を買手に知らせるために示す品。また、そのために作った物。サンプル。</t>
+  </si>
+  <si>
+    <t>浸透（しんとう）</t>
+  </si>
+  <si>
+    <t>水などが、染みとおること。ある液体または気体が、半透膜を通過して、他の液体または気体と混じり合い拡散する現象。</t>
+  </si>
+  <si>
+    <t>画期的</t>
+  </si>
+  <si>
+    <t>これまでとは時代を区切るほど目覚しいさま。新しい時代を開くさま。エポックメーキング。</t>
+  </si>
+  <si>
+    <t>見本（みほん）</t>
+  </si>
+  <si>
+    <t>見取り稽古（みとりけいこ）</t>
+  </si>
+  <si>
+    <t>技量（ぎりょう）</t>
+  </si>
+  <si>
+    <t>ある物事を行う能力。腕前、手並み。</t>
+  </si>
+  <si>
+    <t>燃え尽き症候群</t>
+  </si>
+  <si>
+    <t>休養日（きゅうようび）</t>
+  </si>
+  <si>
+    <t>執務（しつむ）</t>
+  </si>
+  <si>
+    <t>業務についていること。また、事務を取り扱うこと。</t>
+  </si>
+  <si>
+    <t>起因（きいん）</t>
+  </si>
+  <si>
+    <t>ある事の起こる原因となること。</t>
+  </si>
+  <si>
+    <t>横ばい（よこばい）</t>
+  </si>
+  <si>
+    <t>横に這うこと。</t>
+  </si>
+  <si>
+    <t>大惨事（だいさんじ）</t>
+  </si>
+  <si>
+    <t>とりわけ悲惨な出来事。</t>
+  </si>
+  <si>
+    <t>放心</t>
+  </si>
+  <si>
+    <t>気にかけないこと、心配ごとを心から払いのけること。あるいは、心を奪われたりして、魂が抜けたようにぼんやりすること。</t>
+  </si>
+  <si>
+    <t>痺れる（しびれる）</t>
+  </si>
+  <si>
+    <t>体の一部または全体の感覚が失われ、自由が利かなくなる。心を奪われてうっとりとする。強烈な刺激を受け手陶酔する。</t>
+  </si>
+  <si>
+    <t>血腫（けっしゅ）</t>
+  </si>
+  <si>
+    <t>内出血によって組織内に血液がたまり、昆布のように腫れ上がったもの。</t>
+  </si>
+  <si>
+    <t>血圧（けつあつ）</t>
+  </si>
+  <si>
+    <t>血液が動脈血管内を流れている時に示す圧力。普通上腕部で測る。</t>
+  </si>
+  <si>
+    <t>アクセル</t>
+  </si>
+  <si>
+    <t>自動車などの加速装置。</t>
+  </si>
+  <si>
+    <t>ブレーキ</t>
+  </si>
+  <si>
+    <t>機械の運動を停止させたり原則させたりする装置。</t>
   </si>
 </sst>
 </file>
@@ -762,9 +1313,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -783,21 +1334,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,8 +1355,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -826,52 +1378,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -879,25 +1385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,6 +1415,67 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -932,60 +1483,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1001,7 +1498,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,85 +1636,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,13 +1666,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,15 +1677,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1177,6 +1719,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1201,17 +1758,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,10 +1785,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1246,133 +1797,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1383,10 +1934,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1708,10 +2259,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:B228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1724,7 +2275,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1732,7 +2283,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1740,7 +2291,7 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1748,7 +2299,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1756,7 +2307,7 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1764,7 +2315,7 @@
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1772,7 +2323,7 @@
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1780,7 +2331,7 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1788,7 +2339,7 @@
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1796,7 +2347,7 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1804,7 +2355,7 @@
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1812,7 +2363,7 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1820,13 +2371,13 @@
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1834,7 +2385,7 @@
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1842,7 +2393,7 @@
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1850,13 +2401,13 @@
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1864,7 +2415,7 @@
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1872,13 +2423,13 @@
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1886,7 +2437,7 @@
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1894,7 +2445,7 @@
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1902,15 +2453,15 @@
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1918,13 +2469,13 @@
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1932,7 +2483,7 @@
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1940,7 +2491,7 @@
       <c r="A29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1948,7 +2499,7 @@
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1956,7 +2507,7 @@
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1964,7 +2515,7 @@
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1972,13 +2523,13 @@
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1986,7 +2537,7 @@
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1994,13 +2545,13 @@
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2008,7 +2559,7 @@
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2016,7 +2567,7 @@
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2024,7 +2575,7 @@
       <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2032,7 +2583,7 @@
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2040,7 +2591,7 @@
       <c r="A42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2048,7 +2599,7 @@
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2056,7 +2607,7 @@
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2064,7 +2615,7 @@
       <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2072,7 +2623,7 @@
       <c r="A46" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2080,7 +2631,7 @@
       <c r="A47" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2088,7 +2639,7 @@
       <c r="A48" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2096,13 +2647,13 @@
       <c r="A49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="1"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2110,13 +2661,13 @@
       <c r="A51" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="2"/>
+      <c r="B51" s="1"/>
     </row>
     <row r="52" ht="27" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2698,24 +3249,27 @@
       <c r="A126" t="s">
         <v>237</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128" s="3"/>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>241</v>
       </c>
+      <c r="B129" s="3"/>
     </row>
     <row r="130" ht="27" spans="1:2">
       <c r="A130" t="s">
@@ -2725,19 +3279,767 @@
         <v>243</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" ht="27" spans="1:2">
+      <c r="A134" t="s">
+        <v>248</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="135" ht="27" spans="1:2">
+      <c r="A135" t="s">
+        <v>250</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>252</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>254</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>256</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>258</v>
+      </c>
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>259</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>261</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>263</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="143" ht="40.5" spans="1:2">
+      <c r="A143" t="s">
+        <v>265</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="144" ht="27" spans="1:2">
+      <c r="A144" t="s">
+        <v>267</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="145" ht="40.5" spans="1:2">
+      <c r="A145" t="s">
+        <v>269</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>271</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>273</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>275</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>277</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>279</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>281</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>283</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>285</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>287</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="155" ht="27" spans="1:2">
+      <c r="A155" t="s">
+        <v>289</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>291</v>
+      </c>
+      <c r="B156" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>293</v>
+      </c>
+      <c r="B157" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>295</v>
+      </c>
+      <c r="B158" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>297</v>
+      </c>
+      <c r="B159" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>299</v>
+      </c>
+      <c r="B160" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>301</v>
+      </c>
+      <c r="B161" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>303</v>
+      </c>
+      <c r="B162" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>305</v>
+      </c>
+      <c r="B163" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>307</v>
+      </c>
+      <c r="B164" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>309</v>
+      </c>
+      <c r="B165" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>311</v>
+      </c>
+      <c r="B166" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>313</v>
+      </c>
+      <c r="B167" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>315</v>
+      </c>
+      <c r="B168" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>317</v>
+      </c>
+      <c r="B169" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>319</v>
+      </c>
+      <c r="B170" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>321</v>
+      </c>
+      <c r="B171" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>323</v>
+      </c>
+      <c r="B172" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>325</v>
+      </c>
+      <c r="B173" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="174" ht="27" spans="1:2">
+      <c r="A174" t="s">
+        <v>327</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>329</v>
+      </c>
+      <c r="B175" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>331</v>
+      </c>
+      <c r="B176" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>333</v>
+      </c>
+      <c r="B177" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>335</v>
+      </c>
+      <c r="B178" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>337</v>
+      </c>
+      <c r="B179" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>339</v>
+      </c>
+      <c r="B180" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>341</v>
+      </c>
+      <c r="B181" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>343</v>
+      </c>
+      <c r="B182" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>345</v>
+      </c>
+      <c r="B183" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>347</v>
+      </c>
+      <c r="B184" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>349</v>
+      </c>
+      <c r="B185" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="186" ht="40.5" spans="1:2">
+      <c r="A186" t="s">
+        <v>351</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>354</v>
+      </c>
+      <c r="B188" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>356</v>
+      </c>
+      <c r="B189" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>358</v>
+      </c>
+      <c r="B190" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>360</v>
+      </c>
+      <c r="B191" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>362</v>
+      </c>
+      <c r="B192" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>364</v>
+      </c>
+      <c r="B193" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>366</v>
+      </c>
+      <c r="B194" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>368</v>
+      </c>
+      <c r="B195" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>370</v>
+      </c>
+      <c r="B196" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="197" ht="40.5" spans="1:2">
+      <c r="A197" t="s">
+        <v>372</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>374</v>
+      </c>
+      <c r="B198" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="199" ht="27" spans="1:2">
+      <c r="A199" t="s">
+        <v>376</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>378</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>380</v>
+      </c>
+      <c r="B201" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>382</v>
+      </c>
+      <c r="B202" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="203" ht="27" spans="1:2">
+      <c r="A203" t="s">
+        <v>384</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>386</v>
+      </c>
+      <c r="B204" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>388</v>
+      </c>
+      <c r="B205" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="206" ht="67.5" spans="1:2">
+      <c r="A206" t="s">
+        <v>390</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>392</v>
+      </c>
+      <c r="B207" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>394</v>
+      </c>
+      <c r="B208" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>396</v>
+      </c>
+      <c r="B209" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>398</v>
+      </c>
+      <c r="B210" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="211" ht="27" spans="1:2">
+      <c r="A211" t="s">
+        <v>400</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>402</v>
+      </c>
+      <c r="B212" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>404</v>
+      </c>
+      <c r="B213" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>406</v>
+      </c>
+      <c r="B215" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>410</v>
+      </c>
+      <c r="B219" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>412</v>
+      </c>
+      <c r="B220" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>414</v>
+      </c>
+      <c r="B221" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>416</v>
+      </c>
+      <c r="B222" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="223" ht="27" spans="1:2">
+      <c r="A223" t="s">
+        <v>418</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="224" ht="27" spans="1:2">
+      <c r="A224" t="s">
+        <v>420</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>422</v>
+      </c>
+      <c r="B225" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>424</v>
+      </c>
+      <c r="B226" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>426</v>
+      </c>
+      <c r="B227" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>428</v>
+      </c>
+      <c r="B228" t="s">
+        <v>429</v>
       </c>
     </row>
   </sheetData>

--- a/日经词汇.xlsx
+++ b/日经词汇.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19425" windowHeight="7650"/>
+    <workbookView windowWidth="20430" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551">
   <si>
     <t>嫁姑（よめしゅうと）</t>
   </si>
@@ -1306,6 +1306,369 @@
   </si>
   <si>
     <t>機械の運動を停止させたり原則させたりする装置。</t>
+  </si>
+  <si>
+    <t>口論（こうろん）</t>
+  </si>
+  <si>
+    <t>言葉で総論すること。口諍い（くちいさかい）。言い合い。</t>
+  </si>
+  <si>
+    <t>ホワイトハウス</t>
+  </si>
+  <si>
+    <t>アメリカのワシントンにある大統領官邸。１７９２年創建。現在は４階建で、白堊を塗る。</t>
+  </si>
+  <si>
+    <t>多数派（たすうは）</t>
+  </si>
+  <si>
+    <t>全体を二つに分けて、所属者・支持者が多数を占める方のグループ。</t>
+  </si>
+  <si>
+    <t>明け渡す</t>
+  </si>
+  <si>
+    <t>（建物・土地など）立ち退いて他人に渡す。</t>
+  </si>
+  <si>
+    <t>終盤（しゅうばん）</t>
+  </si>
+  <si>
+    <t>勝負が終わりに近づいた寄せの段階。また、その盤面。転じて、行事・仕事などの最終段階にもいう。</t>
+  </si>
+  <si>
+    <t>結び付ける（むすびつける）</t>
+  </si>
+  <si>
+    <t>結わえ付ける。縛り付ける。あるいは、関係づける。</t>
+  </si>
+  <si>
+    <t>規制（きせい）</t>
+  </si>
+  <si>
+    <t>掟（おきて）。決まり。また、規律を立てて制限すること。</t>
+  </si>
+  <si>
+    <t>仕立てる（したてる）</t>
+  </si>
+  <si>
+    <t>工夫して拵える。また、故意に作り上げる。</t>
+  </si>
+  <si>
+    <t>役者（やくしゃ）</t>
+  </si>
+  <si>
+    <t>役目ある者。役目に当たる人。</t>
+  </si>
+  <si>
+    <t>打ち切る（うちきる）</t>
+  </si>
+  <si>
+    <t>後を切り捨てて、一応終わりにする。</t>
+  </si>
+  <si>
+    <t>フェイクニュース</t>
+  </si>
+  <si>
+    <t>fake news</t>
+  </si>
+  <si>
+    <t>告げる（つげる）</t>
+  </si>
+  <si>
+    <t>「継ぐ」と同源。事柄を言葉によって人に受け継がせる意。</t>
+  </si>
+  <si>
+    <t>どうか</t>
+  </si>
+  <si>
+    <t>どうぞ。なにどぞ。あるいは、なんとなく。</t>
+  </si>
+  <si>
+    <t>本格化（ほんかくか）</t>
+  </si>
+  <si>
+    <t>本格的になること。ある状態がいよいよ度を増す様子。</t>
+  </si>
+  <si>
+    <t>連携（れんけい）</t>
+  </si>
+  <si>
+    <t>同じ目的を持つ者が互いに連絡をとり、協力しあって物事を行うこと。</t>
+  </si>
+  <si>
+    <t>関税（かんぜい）</t>
+  </si>
+  <si>
+    <t>中世、諸侯や都市が財源を得るために徴収した通関税・城門税などの国内税。</t>
+  </si>
+  <si>
+    <t>引き上げる（ひきあげる）</t>
+  </si>
+  <si>
+    <t>引いて高く上げる。引いいて上に上げる。</t>
+  </si>
+  <si>
+    <t>発動（はつどう）</t>
+  </si>
+  <si>
+    <t>動き出すこと。活動を起こすこと。あるいは、動力を起こすこと。</t>
+  </si>
+  <si>
+    <t>食い違う（くいちがう）</t>
+  </si>
+  <si>
+    <t>（歯がうまく噛み合わない意から）物事が行き違う。</t>
+  </si>
+  <si>
+    <t>えげつない</t>
+  </si>
+  <si>
+    <t>度を過ごして露骨に表現するさま。露骨で、いやらしい。あるいは、やり方に思いやりや人情味がない。情け容赦もない。</t>
+  </si>
+  <si>
+    <t>諸侯（しょこう）</t>
+  </si>
+  <si>
+    <t>中世末期から近世にかけて、諸大名をいう語。</t>
+  </si>
+  <si>
+    <t>月内（げつない）</t>
+  </si>
+  <si>
+    <t>その月のうち。</t>
+  </si>
+  <si>
+    <t>不振（ふしん）</t>
+  </si>
+  <si>
+    <t>勢いが振るわないこと。</t>
+  </si>
+  <si>
+    <t>冠する（かんする）</t>
+  </si>
+  <si>
+    <t>冠を被せる。冠をかぶる。転じて、元服する。</t>
+  </si>
+  <si>
+    <t>傘下入り</t>
+  </si>
+  <si>
+    <t>老舗（しにせ）</t>
+  </si>
+  <si>
+    <t>代々同じ商売を続けている店。由緒（ゆいしょ）正しい店。</t>
+  </si>
+  <si>
+    <t>商号（しょうごう）</t>
+  </si>
+  <si>
+    <t>商人が営業上自己を表示するために用いる名称。</t>
+  </si>
+  <si>
+    <t>見直し（みなおし）</t>
+  </si>
+  <si>
+    <t>見直すこと。</t>
+  </si>
+  <si>
+    <t>長らく（ながらく）</t>
+  </si>
+  <si>
+    <t>長い間。久しく。</t>
+  </si>
+  <si>
+    <t>あおり</t>
+  </si>
+  <si>
+    <t>ある出来事が他に及ぼすこと。</t>
+  </si>
+  <si>
+    <t>振るう（ふるう）</t>
+  </si>
+  <si>
+    <t>大きく振り動かす。あるいは、思うままに使いこなして、そのもののもつ能力を十分に表す。</t>
+  </si>
+  <si>
+    <t>繁華街（はんかがい）</t>
+  </si>
+  <si>
+    <t>商店や飲食店が立ち並び、人通りの多いに賑やかな地域。</t>
+  </si>
+  <si>
+    <t>明洞（ミョンドン）</t>
+  </si>
+  <si>
+    <t>韓国の繁華街のひとつ。</t>
+  </si>
+  <si>
+    <t>実弾（じつだん）</t>
+  </si>
+  <si>
+    <t>本物の弾丸。実包（じっぽう）。</t>
+  </si>
+  <si>
+    <t>住宅街（じゅうたくがい）</t>
+  </si>
+  <si>
+    <t>戸別訪問（こべつほうもん）</t>
+  </si>
+  <si>
+    <t>家を一軒一軒訪問すること。</t>
+  </si>
+  <si>
+    <t>僅差（きんさ）</t>
+  </si>
+  <si>
+    <t>ほんの少しの差。</t>
+  </si>
+  <si>
+    <t>構図（こうず）</t>
+  </si>
+  <si>
+    <t>絵画・写真などで芸術表現の要素をいろいろに組み合わせて、作品の美的効果を出す手段。比喩的に、物事全体の姿・形。</t>
+  </si>
+  <si>
+    <t>ぶれる</t>
+  </si>
+  <si>
+    <t>揺れ動く。あるいは、定まった位置からそれる。特に写真で、露光中にカメラまたは被写体が動いて画像がぼける。</t>
+  </si>
+  <si>
+    <t>猥褻（わいせつ）</t>
+  </si>
+  <si>
+    <t>男女の性に関する事柄を健全な社会風俗に反する態度・方法で取り扱うこと。性的にいやらしく、淫らなこと。</t>
+  </si>
+  <si>
+    <t>ぼける</t>
+  </si>
+  <si>
+    <t>頭の働きや感覚などにぶくなる。ぼんやりする。耄碌（もうろく）する。あるいは、色が薄れてはっきりしなくなる。また、物の輪郭がぼやける。</t>
+  </si>
+  <si>
+    <t>胆石（たんせき）</t>
+  </si>
+  <si>
+    <t>胆汁の成分から形成される胆管または胆嚢ないの結石。</t>
+  </si>
+  <si>
+    <t>患う（わずらう）</t>
+  </si>
+  <si>
+    <t>病気になる。病む。</t>
+  </si>
+  <si>
+    <t>講師（こうし）</t>
+  </si>
+  <si>
+    <t>講演などをする人。あるいは、大学・高等学校などで嘱託（しょくたく）を受けて講義する人。また大学なおで、教授・助教授に準ずる職務を行う教員の職名。</t>
+  </si>
+  <si>
+    <t>淫ら（みだら）</t>
+  </si>
+  <si>
+    <t>男女間の不品行なさま。だらしがないさま。礼儀の正しくないさま。みだり。猥褻。</t>
+  </si>
+  <si>
+    <t>不品行（ふひんこう）</t>
+  </si>
+  <si>
+    <t>行いの悪いこと。特に、男女関係の行いの悪いこと。</t>
+  </si>
+  <si>
+    <t>公式戦（こうしきせん）</t>
+  </si>
+  <si>
+    <t>（親善や練習のための試合に対して）公式の試合。特にプロ野球などで、リーグ戦の日程に従って行う試合。</t>
+  </si>
+  <si>
+    <t>投稿（とうこう）</t>
+  </si>
+  <si>
+    <t>読者が新聞・雑誌などに載せてもらうために原稿を送ること。また、その原稿。</t>
+  </si>
+  <si>
+    <t>制覇</t>
+  </si>
+  <si>
+    <t>覇権を握ること。あるいは、競技・試合などに優勝すること。</t>
+  </si>
+  <si>
+    <t>判定勝ち</t>
+  </si>
+  <si>
+    <t>リーグ戦</t>
+  </si>
+  <si>
+    <t>競技に参加したチームや個人が、全ての相手と対戦する試合方式。総当たり戦。</t>
+  </si>
+  <si>
+    <t>タックスヘイブン</t>
+  </si>
+  <si>
+    <t>外国企業に対して非課税か極めて低率の課税しか行わない国や地域。多国籍企業が節税目的で利用する。</t>
+  </si>
+  <si>
+    <t>国税</t>
+  </si>
+  <si>
+    <t>国家経費を支弁するために、国民に賦課し、徴収する租税。</t>
+  </si>
+  <si>
+    <t>申告漏れ</t>
+  </si>
+  <si>
+    <t>追徴（ついちょう）</t>
+  </si>
+  <si>
+    <t>税金などの公課を追加して取り立てること。あとから不足額を取り立てること。</t>
+  </si>
+  <si>
+    <t>過少申告</t>
+  </si>
+  <si>
+    <t>加算税（かざんぜい）</t>
+  </si>
+  <si>
+    <t>所定の申告義務に違反した場合などに、制裁として本来の税額に加えて徴収する国税。過少申告加算税・無申告加算税・不納付加算税・重加算税の四種。</t>
+  </si>
+  <si>
+    <t>支弁（しべん）</t>
+  </si>
+  <si>
+    <t>取り捌くこと。取り計らい。あるいは、金銭の支払い。</t>
+  </si>
+  <si>
+    <t>租税（そぜい）</t>
+  </si>
+  <si>
+    <t>貢物（みつぎもの）。あるいは、国家または地方公共団体が、その必要な経費を支弁するために、法律に基づき国民・住民から強制的に徴収する収入。国家の徴収するものを国税、地方公共団体の徴収するものを地方税という。</t>
+  </si>
+  <si>
+    <t>子連れ（こづれ）</t>
+  </si>
+  <si>
+    <t>子供を連れていること。</t>
+  </si>
+  <si>
+    <t>波紋（はもん）</t>
+  </si>
+  <si>
+    <t>水面にものを投げた時などに、輪のように広がる波の模様。あるいは、関連して次々に及んでいく変化や反応。</t>
+  </si>
+  <si>
+    <t>乳幼児（にゅうようじ）</t>
+  </si>
+  <si>
+    <t>幼児と乳児。学齢前の子供の総称。</t>
+  </si>
+  <si>
+    <t>抱っこ（だっこ）</t>
+  </si>
+  <si>
+    <t>だくこと。</t>
   </si>
 </sst>
 </file>
@@ -1313,10 +1676,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1348,14 +1711,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1372,7 +1727,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1385,17 +1748,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1409,8 +1786,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1431,8 +1809,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1440,21 +1825,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1469,13 +1839,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1486,19 +1849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,109 +1861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,7 +1879,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,7 +1915,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,19 +1981,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,16 +2053,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1719,17 +2097,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1739,30 +2126,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1785,145 +2148,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2259,10 +2622,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B228"/>
+  <dimension ref="A1:B291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="B228" sqref="B228"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="B291" sqref="B291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3249,7 +3612,7 @@
       <c r="A126" t="s">
         <v>237</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="1" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3257,19 +3620,19 @@
       <c r="A127" t="s">
         <v>239</v>
       </c>
-      <c r="B127" s="3"/>
+      <c r="B127" s="1"/>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>240</v>
       </c>
-      <c r="B128" s="3"/>
+      <c r="B128" s="1"/>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>241</v>
       </c>
-      <c r="B129" s="3"/>
+      <c r="B129" s="1"/>
     </row>
     <row r="130" ht="27" spans="1:2">
       <c r="A130" t="s">
@@ -3283,13 +3646,13 @@
       <c r="A131" t="s">
         <v>244</v>
       </c>
-      <c r="B131" s="3"/>
+      <c r="B131" s="1"/>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>245</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="1" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3297,13 +3660,13 @@
       <c r="A133" t="s">
         <v>247</v>
       </c>
-      <c r="B133" s="3"/>
+      <c r="B133" s="1"/>
     </row>
     <row r="134" ht="27" spans="1:2">
       <c r="A134" t="s">
         <v>248</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="1" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3311,7 +3674,7 @@
       <c r="A135" t="s">
         <v>250</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="1" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3319,7 +3682,7 @@
       <c r="A136" t="s">
         <v>252</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="1" t="s">
         <v>253</v>
       </c>
     </row>
@@ -3327,7 +3690,7 @@
       <c r="A137" t="s">
         <v>254</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="1" t="s">
         <v>255</v>
       </c>
     </row>
@@ -3335,7 +3698,7 @@
       <c r="A138" t="s">
         <v>256</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="1" t="s">
         <v>257</v>
       </c>
     </row>
@@ -3343,13 +3706,13 @@
       <c r="A139" t="s">
         <v>258</v>
       </c>
-      <c r="B139" s="3"/>
+      <c r="B139" s="1"/>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>259</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="1" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3357,7 +3720,7 @@
       <c r="A141" t="s">
         <v>261</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="1" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3365,7 +3728,7 @@
       <c r="A142" t="s">
         <v>263</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="1" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3373,7 +3736,7 @@
       <c r="A143" t="s">
         <v>265</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="1" t="s">
         <v>266</v>
       </c>
     </row>
@@ -3381,7 +3744,7 @@
       <c r="A144" t="s">
         <v>267</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="1" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3389,7 +3752,7 @@
       <c r="A145" t="s">
         <v>269</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="1" t="s">
         <v>270</v>
       </c>
     </row>
@@ -3397,7 +3760,7 @@
       <c r="A146" t="s">
         <v>271</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3405,7 +3768,7 @@
       <c r="A147" t="s">
         <v>273</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="1" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3413,7 +3776,7 @@
       <c r="A148" t="s">
         <v>275</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="1" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3421,7 +3784,7 @@
       <c r="A149" t="s">
         <v>277</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="1" t="s">
         <v>278</v>
       </c>
     </row>
@@ -3429,7 +3792,7 @@
       <c r="A150" t="s">
         <v>279</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="1" t="s">
         <v>280</v>
       </c>
     </row>
@@ -3437,7 +3800,7 @@
       <c r="A151" t="s">
         <v>281</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="1" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3445,7 +3808,7 @@
       <c r="A152" t="s">
         <v>283</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="1" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3453,7 +3816,7 @@
       <c r="A153" t="s">
         <v>285</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="1" t="s">
         <v>286</v>
       </c>
     </row>
@@ -3461,7 +3824,7 @@
       <c r="A154" t="s">
         <v>287</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="1" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3469,7 +3832,7 @@
       <c r="A155" t="s">
         <v>289</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="1" t="s">
         <v>290</v>
       </c>
     </row>
@@ -3621,7 +3984,7 @@
       <c r="A174" t="s">
         <v>327</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="1" t="s">
         <v>328</v>
       </c>
     </row>
@@ -3717,7 +4080,7 @@
       <c r="A186" t="s">
         <v>351</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="1" t="s">
         <v>352</v>
       </c>
     </row>
@@ -3802,7 +4165,7 @@
       <c r="A197" t="s">
         <v>372</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="1" t="s">
         <v>373</v>
       </c>
     </row>
@@ -3818,7 +4181,7 @@
       <c r="A199" t="s">
         <v>376</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="1" t="s">
         <v>377</v>
       </c>
     </row>
@@ -3826,7 +4189,7 @@
       <c r="A200" t="s">
         <v>378</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="1" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3850,7 +4213,7 @@
       <c r="A203" t="s">
         <v>384</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="1" t="s">
         <v>385</v>
       </c>
     </row>
@@ -3874,7 +4237,7 @@
       <c r="A206" t="s">
         <v>390</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="1" t="s">
         <v>391</v>
       </c>
     </row>
@@ -3914,7 +4277,7 @@
       <c r="A211" t="s">
         <v>400</v>
       </c>
-      <c r="B211" s="3" t="s">
+      <c r="B211" s="1" t="s">
         <v>401</v>
       </c>
     </row>
@@ -3998,7 +4361,7 @@
       <c r="A223" t="s">
         <v>418</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="1" t="s">
         <v>419</v>
       </c>
     </row>
@@ -4006,7 +4369,7 @@
       <c r="A224" t="s">
         <v>420</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="1" t="s">
         <v>421</v>
       </c>
     </row>
@@ -4040,6 +4403,495 @@
       </c>
       <c r="B228" t="s">
         <v>429</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>430</v>
+      </c>
+      <c r="B229" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>432</v>
+      </c>
+      <c r="B230" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>434</v>
+      </c>
+      <c r="B231" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>436</v>
+      </c>
+      <c r="B232" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="233" ht="27" spans="1:2">
+      <c r="A233" t="s">
+        <v>438</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>440</v>
+      </c>
+      <c r="B234" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>442</v>
+      </c>
+      <c r="B235" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>444</v>
+      </c>
+      <c r="B236" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>446</v>
+      </c>
+      <c r="B237" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>448</v>
+      </c>
+      <c r="B238" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>450</v>
+      </c>
+      <c r="B239" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>452</v>
+      </c>
+      <c r="B240" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>454</v>
+      </c>
+      <c r="B241" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>456</v>
+      </c>
+      <c r="B242" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>458</v>
+      </c>
+      <c r="B243" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>460</v>
+      </c>
+      <c r="B244" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>462</v>
+      </c>
+      <c r="B245" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
+        <v>464</v>
+      </c>
+      <c r="B246" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>466</v>
+      </c>
+      <c r="B247" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
+        <v>468</v>
+      </c>
+      <c r="B248" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
+        <v>470</v>
+      </c>
+      <c r="B249" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
+        <v>472</v>
+      </c>
+      <c r="B250" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>474</v>
+      </c>
+      <c r="B251" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>476</v>
+      </c>
+      <c r="B252" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>479</v>
+      </c>
+      <c r="B254" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
+        <v>481</v>
+      </c>
+      <c r="B255" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
+        <v>483</v>
+      </c>
+      <c r="B256" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
+        <v>485</v>
+      </c>
+      <c r="B257" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>487</v>
+      </c>
+      <c r="B258" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>489</v>
+      </c>
+      <c r="B259" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>491</v>
+      </c>
+      <c r="B260" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>493</v>
+      </c>
+      <c r="B261" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>495</v>
+      </c>
+      <c r="B262" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>498</v>
+      </c>
+      <c r="B264" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>500</v>
+      </c>
+      <c r="B265" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="266" ht="27" spans="1:2">
+      <c r="A266" t="s">
+        <v>502</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="267" ht="27" spans="1:2">
+      <c r="A267" t="s">
+        <v>504</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>506</v>
+      </c>
+      <c r="B268" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="269" ht="27" spans="1:2">
+      <c r="A269" t="s">
+        <v>508</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>510</v>
+      </c>
+      <c r="B270" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
+        <v>512</v>
+      </c>
+      <c r="B271" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="272" ht="27" spans="1:2">
+      <c r="A272" t="s">
+        <v>514</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>516</v>
+      </c>
+      <c r="B273" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>518</v>
+      </c>
+      <c r="B274" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>520</v>
+      </c>
+      <c r="B275" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
+        <v>522</v>
+      </c>
+      <c r="B276" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>524</v>
+      </c>
+      <c r="B277" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>527</v>
+      </c>
+      <c r="B279" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>529</v>
+      </c>
+      <c r="B280" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
+        <v>531</v>
+      </c>
+      <c r="B281" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" t="s">
+        <v>534</v>
+      </c>
+      <c r="B283" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" t="s">
+        <v>537</v>
+      </c>
+      <c r="B285" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" t="s">
+        <v>539</v>
+      </c>
+      <c r="B286" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="287" ht="40.5" spans="1:2">
+      <c r="A287" t="s">
+        <v>541</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" t="s">
+        <v>543</v>
+      </c>
+      <c r="B288" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>545</v>
+      </c>
+      <c r="B289" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" t="s">
+        <v>547</v>
+      </c>
+      <c r="B290" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" t="s">
+        <v>549</v>
+      </c>
+      <c r="B291" t="s">
+        <v>550</v>
       </c>
     </row>
   </sheetData>
